--- a/model/Single Motor/pwm.xlsx
+++ b/model/Single Motor/pwm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucyl\Documents\GitHub\Controller\model\Single Motor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E0DC1F-8AA5-4389-A78B-04F7AC8B09FE}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F818A329-AB00-42DB-B752-E4F84FF51AD4}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7488" windowHeight="7596" xr2:uid="{CF9D3BC5-4572-49D2-99C2-9EEECB95640A}"/>
   </bookViews>
@@ -1604,1189 +1604,1189 @@
         <v>40</v>
       </c>
       <c r="G2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I2">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J2">
+        <v>28</v>
+      </c>
+      <c r="K2">
+        <v>25</v>
+      </c>
+      <c r="L2">
         <v>22</v>
       </c>
-      <c r="K2">
+      <c r="M2">
+        <v>19</v>
+      </c>
+      <c r="N2">
         <v>17</v>
       </c>
-      <c r="L2">
-        <v>12</v>
-      </c>
-      <c r="M2">
-        <v>7</v>
-      </c>
-      <c r="N2">
+      <c r="O2">
+        <v>14</v>
+      </c>
+      <c r="P2">
+        <v>11</v>
+      </c>
+      <c r="Q2">
+        <v>8</v>
+      </c>
+      <c r="R2">
+        <v>5</v>
+      </c>
+      <c r="S2">
         <v>2</v>
       </c>
-      <c r="O2">
-        <v>-2</v>
-      </c>
-      <c r="P2">
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>-3</v>
+      </c>
+      <c r="V2">
         <v>-6</v>
       </c>
-      <c r="Q2">
-        <v>-9</v>
-      </c>
-      <c r="R2">
-        <v>-12</v>
-      </c>
-      <c r="S2">
+      <c r="W2">
+        <v>-8</v>
+      </c>
+      <c r="X2">
+        <v>-11</v>
+      </c>
+      <c r="Y2">
+        <v>-13</v>
+      </c>
+      <c r="Z2">
+        <v>-15</v>
+      </c>
+      <c r="AA2">
+        <v>-16</v>
+      </c>
+      <c r="AB2">
+        <v>-16</v>
+      </c>
+      <c r="AC2">
+        <v>-16</v>
+      </c>
+      <c r="AD2">
+        <v>-16</v>
+      </c>
+      <c r="AE2">
+        <v>-16</v>
+      </c>
+      <c r="AF2">
+        <v>-16</v>
+      </c>
+      <c r="AG2">
+        <v>-16</v>
+      </c>
+      <c r="AH2">
+        <v>-16</v>
+      </c>
+      <c r="AI2">
+        <v>-16</v>
+      </c>
+      <c r="AJ2">
+        <v>-16</v>
+      </c>
+      <c r="AK2">
+        <v>-16</v>
+      </c>
+      <c r="AL2">
+        <v>-16</v>
+      </c>
+      <c r="AM2">
+        <v>-16</v>
+      </c>
+      <c r="AN2">
+        <v>-16</v>
+      </c>
+      <c r="AO2">
+        <v>-16</v>
+      </c>
+      <c r="AP2">
+        <v>-16</v>
+      </c>
+      <c r="AQ2">
+        <v>-16</v>
+      </c>
+      <c r="AR2">
+        <v>-16</v>
+      </c>
+      <c r="AS2">
+        <v>-16</v>
+      </c>
+      <c r="AT2">
+        <v>-16</v>
+      </c>
+      <c r="AU2">
+        <v>-15</v>
+      </c>
+      <c r="AV2">
+        <v>-15</v>
+      </c>
+      <c r="AW2">
+        <v>-15</v>
+      </c>
+      <c r="AX2">
+        <v>-15</v>
+      </c>
+      <c r="AY2">
+        <v>-15</v>
+      </c>
+      <c r="AZ2">
+        <v>-15</v>
+      </c>
+      <c r="BA2">
+        <v>-15</v>
+      </c>
+      <c r="BB2">
+        <v>-15</v>
+      </c>
+      <c r="BC2">
+        <v>-15</v>
+      </c>
+      <c r="BD2">
+        <v>-15</v>
+      </c>
+      <c r="BE2">
+        <v>-15</v>
+      </c>
+      <c r="BF2">
+        <v>-15</v>
+      </c>
+      <c r="BG2">
+        <v>-15</v>
+      </c>
+      <c r="BH2">
+        <v>-15</v>
+      </c>
+      <c r="BI2">
+        <v>-15</v>
+      </c>
+      <c r="BJ2">
+        <v>-15</v>
+      </c>
+      <c r="BK2">
+        <v>-15</v>
+      </c>
+      <c r="BL2">
+        <v>-15</v>
+      </c>
+      <c r="BM2">
+        <v>-15</v>
+      </c>
+      <c r="BN2">
+        <v>-15</v>
+      </c>
+      <c r="BO2">
+        <v>-15</v>
+      </c>
+      <c r="BP2">
+        <v>-15</v>
+      </c>
+      <c r="BQ2">
         <v>-14</v>
       </c>
-      <c r="T2">
-        <v>-16</v>
-      </c>
-      <c r="U2">
-        <v>-16</v>
-      </c>
-      <c r="V2">
-        <v>-16</v>
-      </c>
-      <c r="W2">
-        <v>-16</v>
-      </c>
-      <c r="X2">
+      <c r="BR2">
         <v>-14</v>
       </c>
-      <c r="Y2">
-        <v>-13</v>
-      </c>
-      <c r="Z2">
-        <v>-11</v>
-      </c>
-      <c r="AA2">
-        <v>-8</v>
-      </c>
-      <c r="AB2">
-        <v>-6</v>
-      </c>
-      <c r="AC2">
-        <v>-3</v>
-      </c>
-      <c r="AD2">
-        <v>-1</v>
-      </c>
-      <c r="AE2">
-        <v>1</v>
-      </c>
-      <c r="AF2">
-        <v>4</v>
-      </c>
-      <c r="AG2">
-        <v>5</v>
-      </c>
-      <c r="AH2">
-        <v>7</v>
-      </c>
-      <c r="AI2">
-        <v>9</v>
-      </c>
-      <c r="AJ2">
-        <v>10</v>
-      </c>
-      <c r="AK2">
-        <v>11</v>
-      </c>
-      <c r="AL2">
-        <v>11</v>
-      </c>
-      <c r="AM2">
-        <v>11</v>
-      </c>
-      <c r="AN2">
-        <v>11</v>
-      </c>
-      <c r="AO2">
-        <v>11</v>
-      </c>
-      <c r="AP2">
-        <v>10</v>
-      </c>
-      <c r="AQ2">
-        <v>10</v>
-      </c>
-      <c r="AR2">
-        <v>9</v>
-      </c>
-      <c r="AS2">
-        <v>8</v>
-      </c>
-      <c r="AT2">
-        <v>6</v>
-      </c>
-      <c r="AU2">
-        <v>5</v>
-      </c>
-      <c r="AV2">
-        <v>4</v>
-      </c>
-      <c r="AW2">
-        <v>3</v>
-      </c>
-      <c r="AX2">
-        <v>2</v>
-      </c>
-      <c r="AY2">
-        <v>1</v>
-      </c>
-      <c r="AZ2">
-        <v>0</v>
-      </c>
-      <c r="BA2">
-        <v>-1</v>
-      </c>
-      <c r="BB2">
-        <v>-2</v>
-      </c>
-      <c r="BC2">
-        <v>-2</v>
-      </c>
-      <c r="BD2">
-        <v>-3</v>
-      </c>
-      <c r="BE2">
-        <v>-3</v>
-      </c>
-      <c r="BF2">
-        <v>-3</v>
-      </c>
-      <c r="BG2">
-        <v>-3</v>
-      </c>
-      <c r="BH2">
-        <v>-2</v>
-      </c>
-      <c r="BI2">
-        <v>-2</v>
-      </c>
-      <c r="BJ2">
-        <v>-2</v>
-      </c>
-      <c r="BK2">
-        <v>-1</v>
-      </c>
-      <c r="BL2">
-        <v>-1</v>
-      </c>
-      <c r="BM2">
-        <v>0</v>
-      </c>
-      <c r="BN2">
-        <v>1</v>
-      </c>
-      <c r="BO2">
-        <v>1</v>
-      </c>
-      <c r="BP2">
-        <v>2</v>
-      </c>
-      <c r="BQ2">
-        <v>2</v>
-      </c>
-      <c r="BR2">
-        <v>3</v>
-      </c>
       <c r="BS2">
-        <v>3</v>
+        <v>-14</v>
       </c>
       <c r="BT2">
-        <v>3</v>
+        <v>-14</v>
       </c>
       <c r="BU2">
-        <v>3</v>
+        <v>-14</v>
       </c>
       <c r="BV2">
-        <v>4</v>
+        <v>-14</v>
       </c>
       <c r="BW2">
-        <v>4</v>
+        <v>-14</v>
       </c>
       <c r="BX2">
-        <v>4</v>
+        <v>-14</v>
       </c>
       <c r="BY2">
-        <v>4</v>
+        <v>-14</v>
       </c>
       <c r="BZ2">
-        <v>4</v>
+        <v>-14</v>
       </c>
       <c r="CA2">
-        <v>3</v>
+        <v>-14</v>
       </c>
       <c r="CB2">
-        <v>3</v>
+        <v>-14</v>
       </c>
       <c r="CC2">
-        <v>3</v>
+        <v>-14</v>
       </c>
       <c r="CD2">
-        <v>3</v>
+        <v>-14</v>
       </c>
       <c r="CE2">
-        <v>2</v>
+        <v>-14</v>
       </c>
       <c r="CF2">
-        <v>2</v>
+        <v>-14</v>
       </c>
       <c r="CG2">
-        <v>2</v>
+        <v>-14</v>
       </c>
       <c r="CH2">
-        <v>2</v>
+        <v>-14</v>
       </c>
       <c r="CI2">
-        <v>1</v>
+        <v>-14</v>
       </c>
       <c r="CJ2">
-        <v>1</v>
+        <v>-14</v>
       </c>
       <c r="CK2">
-        <v>1</v>
+        <v>-14</v>
       </c>
       <c r="CL2">
-        <v>1</v>
+        <v>-14</v>
       </c>
       <c r="CM2">
-        <v>1</v>
+        <v>-14</v>
       </c>
       <c r="CN2">
-        <v>1</v>
+        <v>-14</v>
       </c>
       <c r="CO2">
-        <v>1</v>
+        <v>-14</v>
       </c>
       <c r="CP2">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="CQ2">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="CR2">
-        <v>1</v>
+        <v>-14</v>
       </c>
       <c r="CS2">
-        <v>1</v>
+        <v>-13</v>
       </c>
       <c r="CT2">
-        <v>1</v>
+        <v>-13</v>
       </c>
       <c r="CU2">
-        <v>1</v>
+        <v>-13</v>
       </c>
       <c r="CV2">
-        <v>1</v>
+        <v>-13</v>
       </c>
       <c r="CW2">
-        <v>1</v>
+        <v>-13</v>
       </c>
       <c r="CX2">
-        <v>1</v>
+        <v>-13</v>
       </c>
       <c r="CY2">
-        <v>1</v>
+        <v>-13</v>
       </c>
       <c r="CZ2">
-        <v>1</v>
+        <v>-13</v>
       </c>
       <c r="DA2">
-        <v>1</v>
+        <v>-13</v>
       </c>
       <c r="DB2">
-        <v>2</v>
+        <v>-13</v>
       </c>
       <c r="DC2">
-        <v>2</v>
+        <v>-13</v>
       </c>
       <c r="DD2">
-        <v>2</v>
+        <v>-13</v>
       </c>
       <c r="DE2">
-        <v>2</v>
+        <v>-13</v>
       </c>
       <c r="DF2">
-        <v>2</v>
+        <v>-13</v>
       </c>
       <c r="DG2">
-        <v>2</v>
+        <v>-13</v>
       </c>
       <c r="DH2">
-        <v>2</v>
+        <v>-13</v>
       </c>
       <c r="DI2">
-        <v>2</v>
+        <v>-13</v>
       </c>
       <c r="DJ2">
-        <v>2</v>
+        <v>-13</v>
       </c>
       <c r="DK2">
-        <v>2</v>
+        <v>-13</v>
       </c>
       <c r="DL2">
-        <v>2</v>
+        <v>-13</v>
       </c>
       <c r="DM2">
-        <v>2</v>
+        <v>-13</v>
       </c>
       <c r="DN2">
-        <v>2</v>
+        <v>-13</v>
       </c>
       <c r="DO2">
-        <v>2</v>
+        <v>-13</v>
       </c>
       <c r="DP2">
-        <v>2</v>
+        <v>-13</v>
       </c>
       <c r="DQ2">
-        <v>2</v>
+        <v>-13</v>
       </c>
       <c r="DR2">
-        <v>2</v>
+        <v>-13</v>
       </c>
       <c r="DS2">
-        <v>2</v>
+        <v>-13</v>
       </c>
       <c r="DT2">
-        <v>1</v>
+        <v>-13</v>
       </c>
       <c r="DU2">
-        <v>1</v>
+        <v>-13</v>
       </c>
       <c r="DV2">
-        <v>1</v>
+        <v>-13</v>
       </c>
       <c r="DW2">
-        <v>1</v>
+        <v>-13</v>
       </c>
       <c r="DX2">
-        <v>1</v>
+        <v>-13</v>
       </c>
       <c r="DY2">
-        <v>1</v>
+        <v>-13</v>
       </c>
       <c r="DZ2">
-        <v>1</v>
+        <v>-13</v>
       </c>
       <c r="EA2">
-        <v>1</v>
+        <v>-13</v>
       </c>
       <c r="EB2">
-        <v>1</v>
+        <v>-13</v>
       </c>
       <c r="EC2">
-        <v>2</v>
+        <v>-12</v>
       </c>
       <c r="ED2">
-        <v>2</v>
+        <v>-12</v>
       </c>
       <c r="EE2">
-        <v>2</v>
+        <v>-12</v>
       </c>
       <c r="EF2">
-        <v>2</v>
+        <v>-12</v>
       </c>
       <c r="EG2">
-        <v>2</v>
+        <v>-12</v>
       </c>
       <c r="EH2">
-        <v>2</v>
+        <v>-12</v>
       </c>
       <c r="EI2">
-        <v>2</v>
+        <v>-12</v>
       </c>
       <c r="EJ2">
-        <v>2</v>
+        <v>-12</v>
       </c>
       <c r="EK2">
-        <v>2</v>
+        <v>-12</v>
       </c>
       <c r="EL2">
-        <v>2</v>
+        <v>-12</v>
       </c>
       <c r="EM2">
-        <v>1</v>
+        <v>-12</v>
       </c>
       <c r="EN2">
-        <v>1</v>
+        <v>-12</v>
       </c>
       <c r="EO2">
-        <v>1</v>
+        <v>-12</v>
       </c>
       <c r="EP2">
-        <v>1</v>
+        <v>-12</v>
       </c>
       <c r="EQ2">
-        <v>1</v>
+        <v>-12</v>
       </c>
       <c r="ER2">
-        <v>2</v>
+        <v>-12</v>
       </c>
       <c r="ES2">
-        <v>2</v>
+        <v>-12</v>
       </c>
       <c r="ET2">
-        <v>2</v>
+        <v>-12</v>
       </c>
       <c r="EU2">
-        <v>2</v>
+        <v>-12</v>
       </c>
       <c r="EV2">
-        <v>2</v>
+        <v>-12</v>
       </c>
       <c r="EW2">
-        <v>2</v>
+        <v>-12</v>
       </c>
       <c r="EX2">
-        <v>2</v>
+        <v>-12</v>
       </c>
       <c r="EY2">
-        <v>1</v>
+        <v>-12</v>
       </c>
       <c r="EZ2">
-        <v>1</v>
+        <v>-12</v>
       </c>
       <c r="FA2">
-        <v>1</v>
+        <v>-12</v>
       </c>
       <c r="FB2">
-        <v>1</v>
+        <v>-12</v>
       </c>
       <c r="FC2">
-        <v>2</v>
+        <v>-12</v>
       </c>
       <c r="FD2">
-        <v>2</v>
+        <v>-12</v>
       </c>
       <c r="FE2">
-        <v>2</v>
+        <v>-12</v>
       </c>
       <c r="FF2">
-        <v>2</v>
+        <v>-12</v>
       </c>
       <c r="FG2">
-        <v>2</v>
+        <v>-12</v>
       </c>
       <c r="FH2">
-        <v>2</v>
+        <v>-12</v>
       </c>
       <c r="FI2">
-        <v>1</v>
+        <v>-12</v>
       </c>
       <c r="FJ2">
-        <v>1</v>
+        <v>-12</v>
       </c>
       <c r="FK2">
-        <v>1</v>
+        <v>-12</v>
       </c>
       <c r="FL2">
-        <v>2</v>
+        <v>-12</v>
       </c>
       <c r="FM2">
-        <v>2</v>
+        <v>-12</v>
       </c>
       <c r="FN2">
-        <v>2</v>
+        <v>-12</v>
       </c>
       <c r="FO2">
-        <v>2</v>
+        <v>-12</v>
       </c>
       <c r="FP2">
-        <v>1</v>
+        <v>-12</v>
       </c>
       <c r="FQ2">
-        <v>1</v>
+        <v>-12</v>
       </c>
       <c r="FR2">
-        <v>1</v>
+        <v>-12</v>
       </c>
       <c r="FS2">
-        <v>2</v>
+        <v>-12</v>
       </c>
       <c r="FT2">
-        <v>2</v>
+        <v>-12</v>
       </c>
       <c r="FU2">
-        <v>2</v>
+        <v>-12</v>
       </c>
       <c r="FV2">
-        <v>2</v>
+        <v>-12</v>
       </c>
       <c r="FW2">
-        <v>1</v>
+        <v>-12</v>
       </c>
       <c r="FX2">
-        <v>1</v>
+        <v>-12</v>
       </c>
       <c r="FY2">
-        <v>1</v>
+        <v>-12</v>
       </c>
       <c r="FZ2">
-        <v>2</v>
+        <v>-12</v>
       </c>
       <c r="GA2">
-        <v>2</v>
+        <v>-12</v>
       </c>
       <c r="GB2">
-        <v>2</v>
+        <v>-12</v>
       </c>
       <c r="GC2">
-        <v>1</v>
+        <v>-11</v>
       </c>
       <c r="GD2">
-        <v>1</v>
+        <v>-11</v>
       </c>
       <c r="GE2">
-        <v>2</v>
+        <v>-11</v>
       </c>
       <c r="GF2">
-        <v>2</v>
+        <v>-11</v>
       </c>
       <c r="GG2">
-        <v>2</v>
+        <v>-11</v>
       </c>
       <c r="GH2">
-        <v>1</v>
+        <v>-11</v>
       </c>
       <c r="GI2">
-        <v>1</v>
+        <v>-11</v>
       </c>
       <c r="GJ2">
-        <v>2</v>
+        <v>-11</v>
       </c>
       <c r="GK2">
-        <v>2</v>
+        <v>-11</v>
       </c>
       <c r="GL2">
-        <v>2</v>
+        <v>-11</v>
       </c>
       <c r="GM2">
-        <v>1</v>
+        <v>-11</v>
       </c>
       <c r="GN2">
-        <v>1</v>
+        <v>-11</v>
       </c>
       <c r="GO2">
-        <v>2</v>
+        <v>-11</v>
       </c>
       <c r="GP2">
-        <v>2</v>
+        <v>-11</v>
       </c>
       <c r="GQ2">
-        <v>2</v>
+        <v>-11</v>
       </c>
       <c r="GR2">
-        <v>1</v>
+        <v>-11</v>
       </c>
       <c r="GS2">
-        <v>1</v>
+        <v>-11</v>
       </c>
       <c r="GT2">
-        <v>2</v>
+        <v>-11</v>
       </c>
       <c r="GU2">
-        <v>2</v>
+        <v>-11</v>
       </c>
       <c r="GV2">
-        <v>1</v>
+        <v>-11</v>
       </c>
       <c r="GW2">
-        <v>1</v>
+        <v>-11</v>
       </c>
       <c r="GX2">
-        <v>2</v>
+        <v>-11</v>
       </c>
       <c r="GY2">
-        <v>2</v>
+        <v>-11</v>
       </c>
       <c r="GZ2">
-        <v>1</v>
+        <v>-11</v>
       </c>
       <c r="HA2">
-        <v>1</v>
+        <v>-11</v>
       </c>
       <c r="HB2">
-        <v>2</v>
+        <v>-11</v>
       </c>
       <c r="HC2">
-        <v>2</v>
+        <v>-11</v>
       </c>
       <c r="HD2">
-        <v>1</v>
+        <v>-11</v>
       </c>
       <c r="HE2">
-        <v>1</v>
+        <v>-11</v>
       </c>
       <c r="HF2">
-        <v>2</v>
+        <v>-11</v>
       </c>
       <c r="HG2">
-        <v>2</v>
+        <v>-11</v>
       </c>
       <c r="HH2">
-        <v>1</v>
+        <v>-11</v>
       </c>
       <c r="HI2">
-        <v>1</v>
+        <v>-11</v>
       </c>
       <c r="HJ2">
-        <v>2</v>
+        <v>-11</v>
       </c>
       <c r="HK2">
-        <v>2</v>
+        <v>-11</v>
       </c>
       <c r="HL2">
-        <v>1</v>
+        <v>-11</v>
       </c>
       <c r="HM2">
-        <v>2</v>
+        <v>-11</v>
       </c>
       <c r="HN2">
-        <v>2</v>
+        <v>-11</v>
       </c>
       <c r="HO2">
-        <v>1</v>
+        <v>-11</v>
       </c>
       <c r="HP2">
-        <v>1</v>
+        <v>-11</v>
       </c>
       <c r="HQ2">
-        <v>2</v>
+        <v>-11</v>
       </c>
       <c r="HR2">
-        <v>2</v>
+        <v>-11</v>
       </c>
       <c r="HS2">
-        <v>1</v>
+        <v>-11</v>
       </c>
       <c r="HT2">
-        <v>2</v>
+        <v>-11</v>
       </c>
       <c r="HU2">
-        <v>2</v>
+        <v>-11</v>
       </c>
       <c r="HV2">
-        <v>1</v>
+        <v>-11</v>
       </c>
       <c r="HW2">
-        <v>1</v>
+        <v>-11</v>
       </c>
       <c r="HX2">
-        <v>2</v>
+        <v>-11</v>
       </c>
       <c r="HY2">
-        <v>2</v>
+        <v>-11</v>
       </c>
       <c r="HZ2">
-        <v>1</v>
+        <v>-11</v>
       </c>
       <c r="IA2">
-        <v>2</v>
+        <v>-11</v>
       </c>
       <c r="IB2">
-        <v>2</v>
+        <v>-11</v>
       </c>
       <c r="IC2">
-        <v>1</v>
+        <v>-11</v>
       </c>
       <c r="ID2">
-        <v>2</v>
+        <v>-11</v>
       </c>
       <c r="IE2">
-        <v>2</v>
+        <v>-11</v>
       </c>
       <c r="IF2">
-        <v>1</v>
+        <v>-11</v>
       </c>
       <c r="IG2">
-        <v>2</v>
+        <v>-11</v>
       </c>
       <c r="IH2">
-        <v>2</v>
+        <v>-11</v>
       </c>
       <c r="II2">
-        <v>1</v>
+        <v>-11</v>
       </c>
       <c r="IJ2">
-        <v>1</v>
+        <v>-11</v>
       </c>
       <c r="IK2">
-        <v>2</v>
+        <v>-11</v>
       </c>
       <c r="IL2">
-        <v>2</v>
+        <v>-11</v>
       </c>
       <c r="IM2">
-        <v>1</v>
+        <v>-11</v>
       </c>
       <c r="IN2">
-        <v>2</v>
+        <v>-11</v>
       </c>
       <c r="IO2">
-        <v>2</v>
+        <v>-11</v>
       </c>
       <c r="IP2">
-        <v>1</v>
+        <v>-11</v>
       </c>
       <c r="IQ2">
-        <v>2</v>
+        <v>-11</v>
       </c>
       <c r="IR2">
-        <v>2</v>
+        <v>-11</v>
       </c>
       <c r="IS2">
-        <v>1</v>
+        <v>-11</v>
       </c>
       <c r="IT2">
-        <v>2</v>
+        <v>-11</v>
       </c>
       <c r="IU2">
-        <v>2</v>
+        <v>-11</v>
       </c>
       <c r="IV2">
-        <v>1</v>
+        <v>-11</v>
       </c>
       <c r="IW2">
-        <v>2</v>
+        <v>-11</v>
       </c>
       <c r="IX2">
-        <v>2</v>
+        <v>-11</v>
       </c>
       <c r="IY2">
-        <v>1</v>
+        <v>-11</v>
       </c>
       <c r="IZ2">
-        <v>2</v>
+        <v>-11</v>
       </c>
       <c r="JA2">
-        <v>2</v>
+        <v>-11</v>
       </c>
       <c r="JB2">
-        <v>1</v>
+        <v>-11</v>
       </c>
       <c r="JC2">
-        <v>2</v>
+        <v>-11</v>
       </c>
       <c r="JD2">
-        <v>2</v>
+        <v>-11</v>
       </c>
       <c r="JE2">
-        <v>1</v>
+        <v>-11</v>
       </c>
       <c r="JF2">
-        <v>2</v>
+        <v>-11</v>
       </c>
       <c r="JG2">
-        <v>2</v>
+        <v>-11</v>
       </c>
       <c r="JH2">
-        <v>1</v>
+        <v>-11</v>
       </c>
       <c r="JI2">
-        <v>2</v>
+        <v>-11</v>
       </c>
       <c r="JJ2">
-        <v>2</v>
+        <v>-11</v>
       </c>
       <c r="JK2">
-        <v>1</v>
+        <v>-11</v>
       </c>
       <c r="JL2">
-        <v>2</v>
+        <v>-11</v>
       </c>
       <c r="JM2">
-        <v>2</v>
+        <v>-11</v>
       </c>
       <c r="JN2">
-        <v>1</v>
+        <v>-11</v>
       </c>
       <c r="JO2">
-        <v>2</v>
+        <v>-11</v>
       </c>
       <c r="JP2">
-        <v>2</v>
+        <v>-11</v>
       </c>
       <c r="JQ2">
-        <v>1</v>
+        <v>-11</v>
       </c>
       <c r="JR2">
-        <v>2</v>
+        <v>-11</v>
       </c>
       <c r="JS2">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="JT2">
-        <v>1</v>
+        <v>-10</v>
       </c>
       <c r="JU2">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="JV2">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="JW2">
-        <v>1</v>
+        <v>-10</v>
       </c>
       <c r="JX2">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="JY2">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="JZ2">
-        <v>1</v>
+        <v>-10</v>
       </c>
       <c r="KA2">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="KB2">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="KC2">
-        <v>1</v>
+        <v>-10</v>
       </c>
       <c r="KD2">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="KE2">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="KF2">
-        <v>1</v>
+        <v>-10</v>
       </c>
       <c r="KG2">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="KH2">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="KI2">
-        <v>1</v>
+        <v>-10</v>
       </c>
       <c r="KJ2">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="KK2">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="KL2">
-        <v>1</v>
+        <v>-10</v>
       </c>
       <c r="KM2">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="KN2">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="KO2">
-        <v>1</v>
+        <v>-10</v>
       </c>
       <c r="KP2">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="KQ2">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="KR2">
-        <v>1</v>
+        <v>-10</v>
       </c>
       <c r="KS2">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="KT2">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="KU2">
-        <v>1</v>
+        <v>-10</v>
       </c>
       <c r="KV2">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="KW2">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="KX2">
-        <v>1</v>
+        <v>-10</v>
       </c>
       <c r="KY2">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="KZ2">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="LA2">
-        <v>1</v>
+        <v>-10</v>
       </c>
       <c r="LB2">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="LC2">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="LD2">
-        <v>1</v>
+        <v>-10</v>
       </c>
       <c r="LE2">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="LF2">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="LG2">
-        <v>1</v>
+        <v>-10</v>
       </c>
       <c r="LH2">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="LI2">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="LJ2">
-        <v>1</v>
+        <v>-10</v>
       </c>
       <c r="LK2">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="LL2">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="LM2">
-        <v>1</v>
+        <v>-10</v>
       </c>
       <c r="LN2">
-        <v>1</v>
+        <v>-10</v>
       </c>
       <c r="LO2">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="LP2">
-        <v>1</v>
+        <v>-10</v>
       </c>
       <c r="LQ2">
-        <v>1</v>
+        <v>-10</v>
       </c>
       <c r="LR2">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="LS2">
-        <v>1</v>
+        <v>-10</v>
       </c>
       <c r="LT2">
-        <v>1</v>
+        <v>-10</v>
       </c>
       <c r="LU2">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="LV2">
-        <v>1</v>
+        <v>-10</v>
       </c>
       <c r="LW2">
-        <v>1</v>
+        <v>-10</v>
       </c>
       <c r="LX2">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="LY2">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="LZ2">
-        <v>1</v>
+        <v>-10</v>
       </c>
       <c r="MA2">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="MB2">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="MC2">
-        <v>1</v>
+        <v>-10</v>
       </c>
       <c r="MD2">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="ME2">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="MF2">
-        <v>1</v>
+        <v>-10</v>
       </c>
       <c r="MG2">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="MH2">
-        <v>1</v>
+        <v>-10</v>
       </c>
       <c r="MI2">
-        <v>1</v>
+        <v>-10</v>
       </c>
       <c r="MJ2">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="MK2">
-        <v>1</v>
+        <v>-10</v>
       </c>
       <c r="ML2">
-        <v>1</v>
+        <v>-10</v>
       </c>
       <c r="MM2">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="MN2">
-        <v>1</v>
+        <v>-10</v>
       </c>
       <c r="MO2">
-        <v>1</v>
+        <v>-10</v>
       </c>
       <c r="MP2">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="MQ2">
-        <v>1</v>
+        <v>-10</v>
       </c>
       <c r="MR2">
-        <v>1</v>
+        <v>-10</v>
       </c>
       <c r="MS2">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="MT2">
-        <v>1</v>
+        <v>-10</v>
       </c>
       <c r="MU2">
-        <v>1</v>
+        <v>-10</v>
       </c>
       <c r="MV2">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="MW2">
-        <v>1</v>
+        <v>-10</v>
       </c>
       <c r="MX2">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="MY2">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="MZ2">
-        <v>1</v>
+        <v>-10</v>
       </c>
       <c r="NA2">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="NB2">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="NC2">
-        <v>1</v>
+        <v>-10</v>
       </c>
       <c r="ND2">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="NE2">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="NF2">
-        <v>1</v>
+        <v>-10</v>
       </c>
       <c r="NG2">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="NH2">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="NI2">
-        <v>1</v>
+        <v>-10</v>
       </c>
       <c r="NJ2">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="NK2">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="NL2">
-        <v>1</v>
+        <v>-10</v>
       </c>
       <c r="NM2">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="NN2">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="NO2">
-        <v>1</v>
+        <v>-10</v>
       </c>
       <c r="NP2">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="NQ2">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="NR2">
-        <v>1</v>
+        <v>-10</v>
       </c>
       <c r="NS2">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="NT2">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="NU2">
-        <v>1</v>
+        <v>-10</v>
       </c>
       <c r="NV2">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="NW2">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="NX2">
-        <v>1</v>
+        <v>-10</v>
       </c>
       <c r="NY2">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="NZ2">
-        <v>1</v>
+        <v>-10</v>
       </c>
       <c r="OA2">
-        <v>1</v>
+        <v>-10</v>
       </c>
       <c r="OB2">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="OC2">
-        <v>1</v>
+        <v>-10</v>
       </c>
       <c r="OD2">
-        <v>1</v>
+        <v>-10</v>
       </c>
       <c r="OE2">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="OF2">
-        <v>1</v>
+        <v>-10</v>
       </c>
       <c r="OG2">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="OH2">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="OI2">
-        <v>1</v>
+        <v>-10</v>
       </c>
       <c r="OJ2">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="OK2">
-        <v>2</v>
+        <v>-10</v>
       </c>
     </row>
   </sheetData>

--- a/model/Single Motor/pwm.xlsx
+++ b/model/Single Motor/pwm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucyl\Documents\GitHub\Controller\model\Single Motor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F818A329-AB00-42DB-B752-E4F84FF51AD4}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A54C5AB-76F3-436E-982E-05B7C4FB026F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7488" windowHeight="7596" xr2:uid="{CF9D3BC5-4572-49D2-99C2-9EEECB95640A}"/>
   </bookViews>
@@ -1613,1180 +1613,1180 @@
         <v>31</v>
       </c>
       <c r="J2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L2">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M2">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="N2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="O2">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="P2">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="Q2">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="R2">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="S2">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="U2">
-        <v>-3</v>
+        <v>-30</v>
       </c>
       <c r="V2">
-        <v>-6</v>
+        <v>-30</v>
       </c>
       <c r="W2">
-        <v>-8</v>
+        <v>-30</v>
       </c>
       <c r="X2">
-        <v>-11</v>
+        <v>-30</v>
       </c>
       <c r="Y2">
-        <v>-13</v>
+        <v>30</v>
       </c>
       <c r="Z2">
-        <v>-15</v>
+        <v>30</v>
       </c>
       <c r="AA2">
-        <v>-16</v>
+        <v>30</v>
       </c>
       <c r="AB2">
-        <v>-16</v>
+        <v>30</v>
       </c>
       <c r="AC2">
-        <v>-16</v>
+        <v>30</v>
       </c>
       <c r="AD2">
-        <v>-16</v>
+        <v>30</v>
       </c>
       <c r="AE2">
-        <v>-16</v>
+        <v>30</v>
       </c>
       <c r="AF2">
-        <v>-16</v>
+        <v>30</v>
       </c>
       <c r="AG2">
-        <v>-16</v>
+        <v>30</v>
       </c>
       <c r="AH2">
-        <v>-16</v>
+        <v>30</v>
       </c>
       <c r="AI2">
-        <v>-16</v>
+        <v>30</v>
       </c>
       <c r="AJ2">
-        <v>-16</v>
+        <v>30</v>
       </c>
       <c r="AK2">
-        <v>-16</v>
+        <v>30</v>
       </c>
       <c r="AL2">
-        <v>-16</v>
+        <v>30</v>
       </c>
       <c r="AM2">
-        <v>-16</v>
+        <v>30</v>
       </c>
       <c r="AN2">
-        <v>-16</v>
+        <v>-30</v>
       </c>
       <c r="AO2">
-        <v>-16</v>
+        <v>30</v>
       </c>
       <c r="AP2">
-        <v>-16</v>
+        <v>-30</v>
       </c>
       <c r="AQ2">
-        <v>-16</v>
+        <v>30</v>
       </c>
       <c r="AR2">
-        <v>-16</v>
+        <v>-30</v>
       </c>
       <c r="AS2">
-        <v>-16</v>
+        <v>30</v>
       </c>
       <c r="AT2">
-        <v>-16</v>
+        <v>30</v>
       </c>
       <c r="AU2">
-        <v>-15</v>
+        <v>30</v>
       </c>
       <c r="AV2">
-        <v>-15</v>
+        <v>30</v>
       </c>
       <c r="AW2">
-        <v>-15</v>
+        <v>30</v>
       </c>
       <c r="AX2">
-        <v>-15</v>
+        <v>30</v>
       </c>
       <c r="AY2">
-        <v>-15</v>
+        <v>30</v>
       </c>
       <c r="AZ2">
-        <v>-15</v>
+        <v>30</v>
       </c>
       <c r="BA2">
-        <v>-15</v>
+        <v>-30</v>
       </c>
       <c r="BB2">
-        <v>-15</v>
+        <v>30</v>
       </c>
       <c r="BC2">
-        <v>-15</v>
+        <v>-30</v>
       </c>
       <c r="BD2">
-        <v>-15</v>
+        <v>30</v>
       </c>
       <c r="BE2">
-        <v>-15</v>
+        <v>-30</v>
       </c>
       <c r="BF2">
-        <v>-15</v>
+        <v>30</v>
       </c>
       <c r="BG2">
-        <v>-15</v>
+        <v>-30</v>
       </c>
       <c r="BH2">
-        <v>-15</v>
+        <v>30</v>
       </c>
       <c r="BI2">
-        <v>-15</v>
+        <v>-30</v>
       </c>
       <c r="BJ2">
-        <v>-15</v>
+        <v>30</v>
       </c>
       <c r="BK2">
-        <v>-15</v>
+        <v>-30</v>
       </c>
       <c r="BL2">
-        <v>-15</v>
+        <v>30</v>
       </c>
       <c r="BM2">
-        <v>-15</v>
+        <v>-30</v>
       </c>
       <c r="BN2">
-        <v>-15</v>
+        <v>30</v>
       </c>
       <c r="BO2">
-        <v>-15</v>
+        <v>-30</v>
       </c>
       <c r="BP2">
-        <v>-15</v>
+        <v>30</v>
       </c>
       <c r="BQ2">
-        <v>-14</v>
+        <v>30</v>
       </c>
       <c r="BR2">
-        <v>-14</v>
+        <v>30</v>
       </c>
       <c r="BS2">
-        <v>-14</v>
+        <v>30</v>
       </c>
       <c r="BT2">
-        <v>-14</v>
+        <v>30</v>
       </c>
       <c r="BU2">
-        <v>-14</v>
+        <v>30</v>
       </c>
       <c r="BV2">
-        <v>-14</v>
+        <v>30</v>
       </c>
       <c r="BW2">
-        <v>-14</v>
+        <v>30</v>
       </c>
       <c r="BX2">
-        <v>-14</v>
+        <v>-30</v>
       </c>
       <c r="BY2">
-        <v>-14</v>
+        <v>30</v>
       </c>
       <c r="BZ2">
-        <v>-14</v>
+        <v>-30</v>
       </c>
       <c r="CA2">
-        <v>-14</v>
+        <v>30</v>
       </c>
       <c r="CB2">
-        <v>-14</v>
+        <v>-30</v>
       </c>
       <c r="CC2">
-        <v>-14</v>
+        <v>30</v>
       </c>
       <c r="CD2">
-        <v>-14</v>
+        <v>-30</v>
       </c>
       <c r="CE2">
-        <v>-14</v>
+        <v>30</v>
       </c>
       <c r="CF2">
-        <v>-14</v>
+        <v>-30</v>
       </c>
       <c r="CG2">
-        <v>-14</v>
+        <v>30</v>
       </c>
       <c r="CH2">
-        <v>-14</v>
+        <v>-30</v>
       </c>
       <c r="CI2">
-        <v>-14</v>
+        <v>30</v>
       </c>
       <c r="CJ2">
-        <v>-14</v>
+        <v>30</v>
       </c>
       <c r="CK2">
-        <v>-14</v>
+        <v>30</v>
       </c>
       <c r="CL2">
-        <v>-14</v>
+        <v>30</v>
       </c>
       <c r="CM2">
-        <v>-14</v>
+        <v>30</v>
       </c>
       <c r="CN2">
-        <v>-14</v>
+        <v>30</v>
       </c>
       <c r="CO2">
-        <v>-14</v>
+        <v>30</v>
       </c>
       <c r="CP2">
-        <v>-14</v>
+        <v>30</v>
       </c>
       <c r="CQ2">
-        <v>-14</v>
+        <v>30</v>
       </c>
       <c r="CR2">
-        <v>-14</v>
+        <v>30</v>
       </c>
       <c r="CS2">
-        <v>-13</v>
+        <v>-30</v>
       </c>
       <c r="CT2">
-        <v>-13</v>
+        <v>30</v>
       </c>
       <c r="CU2">
-        <v>-13</v>
+        <v>-30</v>
       </c>
       <c r="CV2">
-        <v>-13</v>
+        <v>30</v>
       </c>
       <c r="CW2">
-        <v>-13</v>
+        <v>-30</v>
       </c>
       <c r="CX2">
-        <v>-13</v>
+        <v>30</v>
       </c>
       <c r="CY2">
-        <v>-13</v>
+        <v>-30</v>
       </c>
       <c r="CZ2">
-        <v>-13</v>
+        <v>30</v>
       </c>
       <c r="DA2">
-        <v>-13</v>
+        <v>-30</v>
       </c>
       <c r="DB2">
-        <v>-13</v>
+        <v>30</v>
       </c>
       <c r="DC2">
-        <v>-13</v>
+        <v>30</v>
       </c>
       <c r="DD2">
-        <v>-13</v>
+        <v>30</v>
       </c>
       <c r="DE2">
-        <v>-13</v>
+        <v>30</v>
       </c>
       <c r="DF2">
-        <v>-13</v>
+        <v>30</v>
       </c>
       <c r="DG2">
-        <v>-13</v>
+        <v>30</v>
       </c>
       <c r="DH2">
-        <v>-13</v>
+        <v>30</v>
       </c>
       <c r="DI2">
-        <v>-13</v>
+        <v>30</v>
       </c>
       <c r="DJ2">
-        <v>-13</v>
+        <v>-30</v>
       </c>
       <c r="DK2">
-        <v>-13</v>
+        <v>30</v>
       </c>
       <c r="DL2">
-        <v>-13</v>
+        <v>-30</v>
       </c>
       <c r="DM2">
-        <v>-13</v>
+        <v>30</v>
       </c>
       <c r="DN2">
-        <v>-13</v>
+        <v>-30</v>
       </c>
       <c r="DO2">
-        <v>-13</v>
+        <v>30</v>
       </c>
       <c r="DP2">
-        <v>-13</v>
+        <v>-30</v>
       </c>
       <c r="DQ2">
-        <v>-13</v>
+        <v>30</v>
       </c>
       <c r="DR2">
-        <v>-13</v>
+        <v>-30</v>
       </c>
       <c r="DS2">
-        <v>-13</v>
+        <v>30</v>
       </c>
       <c r="DT2">
-        <v>-13</v>
+        <v>-30</v>
       </c>
       <c r="DU2">
-        <v>-13</v>
+        <v>30</v>
       </c>
       <c r="DV2">
-        <v>-13</v>
+        <v>30</v>
       </c>
       <c r="DW2">
-        <v>-13</v>
+        <v>30</v>
       </c>
       <c r="DX2">
-        <v>-13</v>
+        <v>30</v>
       </c>
       <c r="DY2">
-        <v>-13</v>
+        <v>30</v>
       </c>
       <c r="DZ2">
-        <v>-13</v>
+        <v>30</v>
       </c>
       <c r="EA2">
-        <v>-13</v>
+        <v>30</v>
       </c>
       <c r="EB2">
-        <v>-13</v>
+        <v>30</v>
       </c>
       <c r="EC2">
-        <v>-12</v>
+        <v>-30</v>
       </c>
       <c r="ED2">
-        <v>-12</v>
+        <v>30</v>
       </c>
       <c r="EE2">
-        <v>-12</v>
+        <v>-30</v>
       </c>
       <c r="EF2">
-        <v>-12</v>
+        <v>30</v>
       </c>
       <c r="EG2">
-        <v>-12</v>
+        <v>-30</v>
       </c>
       <c r="EH2">
-        <v>-12</v>
+        <v>30</v>
       </c>
       <c r="EI2">
-        <v>-12</v>
+        <v>-30</v>
       </c>
       <c r="EJ2">
-        <v>-12</v>
+        <v>30</v>
       </c>
       <c r="EK2">
-        <v>-12</v>
+        <v>-30</v>
       </c>
       <c r="EL2">
-        <v>-12</v>
+        <v>30</v>
       </c>
       <c r="EM2">
-        <v>-12</v>
+        <v>-30</v>
       </c>
       <c r="EN2">
-        <v>-12</v>
+        <v>30</v>
       </c>
       <c r="EO2">
-        <v>-12</v>
+        <v>-30</v>
       </c>
       <c r="EP2">
-        <v>-12</v>
+        <v>30</v>
       </c>
       <c r="EQ2">
-        <v>-12</v>
+        <v>-30</v>
       </c>
       <c r="ER2">
-        <v>-12</v>
+        <v>30</v>
       </c>
       <c r="ES2">
-        <v>-12</v>
+        <v>30</v>
       </c>
       <c r="ET2">
-        <v>-12</v>
+        <v>30</v>
       </c>
       <c r="EU2">
-        <v>-12</v>
+        <v>30</v>
       </c>
       <c r="EV2">
-        <v>-12</v>
+        <v>30</v>
       </c>
       <c r="EW2">
-        <v>-12</v>
+        <v>30</v>
       </c>
       <c r="EX2">
-        <v>-12</v>
+        <v>30</v>
       </c>
       <c r="EY2">
-        <v>-12</v>
+        <v>30</v>
       </c>
       <c r="EZ2">
-        <v>-12</v>
+        <v>-30</v>
       </c>
       <c r="FA2">
-        <v>-12</v>
+        <v>30</v>
       </c>
       <c r="FB2">
-        <v>-12</v>
+        <v>-30</v>
       </c>
       <c r="FC2">
-        <v>-12</v>
+        <v>30</v>
       </c>
       <c r="FD2">
-        <v>-12</v>
+        <v>-30</v>
       </c>
       <c r="FE2">
-        <v>-12</v>
+        <v>30</v>
       </c>
       <c r="FF2">
-        <v>-12</v>
+        <v>-30</v>
       </c>
       <c r="FG2">
-        <v>-12</v>
+        <v>30</v>
       </c>
       <c r="FH2">
-        <v>-12</v>
+        <v>-30</v>
       </c>
       <c r="FI2">
-        <v>-12</v>
+        <v>30</v>
       </c>
       <c r="FJ2">
-        <v>-12</v>
+        <v>-30</v>
       </c>
       <c r="FK2">
-        <v>-12</v>
+        <v>30</v>
       </c>
       <c r="FL2">
-        <v>-12</v>
+        <v>-30</v>
       </c>
       <c r="FM2">
-        <v>-12</v>
+        <v>30</v>
       </c>
       <c r="FN2">
-        <v>-12</v>
+        <v>30</v>
       </c>
       <c r="FO2">
-        <v>-12</v>
+        <v>30</v>
       </c>
       <c r="FP2">
-        <v>-12</v>
+        <v>30</v>
       </c>
       <c r="FQ2">
-        <v>-12</v>
+        <v>30</v>
       </c>
       <c r="FR2">
-        <v>-12</v>
+        <v>30</v>
       </c>
       <c r="FS2">
-        <v>-12</v>
+        <v>-30</v>
       </c>
       <c r="FT2">
-        <v>-12</v>
+        <v>30</v>
       </c>
       <c r="FU2">
-        <v>-12</v>
+        <v>-30</v>
       </c>
       <c r="FV2">
-        <v>-12</v>
+        <v>30</v>
       </c>
       <c r="FW2">
-        <v>-12</v>
+        <v>-30</v>
       </c>
       <c r="FX2">
-        <v>-12</v>
+        <v>30</v>
       </c>
       <c r="FY2">
-        <v>-12</v>
+        <v>-30</v>
       </c>
       <c r="FZ2">
-        <v>-12</v>
+        <v>30</v>
       </c>
       <c r="GA2">
-        <v>-12</v>
+        <v>-30</v>
       </c>
       <c r="GB2">
-        <v>-12</v>
+        <v>30</v>
       </c>
       <c r="GC2">
-        <v>-11</v>
+        <v>-30</v>
       </c>
       <c r="GD2">
-        <v>-11</v>
+        <v>30</v>
       </c>
       <c r="GE2">
-        <v>-11</v>
+        <v>-30</v>
       </c>
       <c r="GF2">
-        <v>-11</v>
+        <v>30</v>
       </c>
       <c r="GG2">
-        <v>-11</v>
+        <v>-30</v>
       </c>
       <c r="GH2">
-        <v>-11</v>
+        <v>30</v>
       </c>
       <c r="GI2">
-        <v>-11</v>
+        <v>30</v>
       </c>
       <c r="GJ2">
-        <v>-11</v>
+        <v>30</v>
       </c>
       <c r="GK2">
-        <v>-11</v>
+        <v>30</v>
       </c>
       <c r="GL2">
-        <v>-11</v>
+        <v>30</v>
       </c>
       <c r="GM2">
-        <v>-11</v>
+        <v>30</v>
       </c>
       <c r="GN2">
-        <v>-11</v>
+        <v>30</v>
       </c>
       <c r="GO2">
-        <v>-11</v>
+        <v>30</v>
       </c>
       <c r="GP2">
-        <v>-11</v>
+        <v>30</v>
       </c>
       <c r="GQ2">
-        <v>-11</v>
+        <v>30</v>
       </c>
       <c r="GR2">
-        <v>-11</v>
+        <v>-30</v>
       </c>
       <c r="GS2">
-        <v>-11</v>
+        <v>30</v>
       </c>
       <c r="GT2">
-        <v>-11</v>
+        <v>-30</v>
       </c>
       <c r="GU2">
-        <v>-11</v>
+        <v>30</v>
       </c>
       <c r="GV2">
-        <v>-11</v>
+        <v>-30</v>
       </c>
       <c r="GW2">
-        <v>-11</v>
+        <v>30</v>
       </c>
       <c r="GX2">
-        <v>-11</v>
+        <v>-30</v>
       </c>
       <c r="GY2">
-        <v>-11</v>
+        <v>30</v>
       </c>
       <c r="GZ2">
-        <v>-11</v>
+        <v>-30</v>
       </c>
       <c r="HA2">
-        <v>-11</v>
+        <v>30</v>
       </c>
       <c r="HB2">
-        <v>-11</v>
+        <v>-30</v>
       </c>
       <c r="HC2">
-        <v>-11</v>
+        <v>30</v>
       </c>
       <c r="HD2">
-        <v>-11</v>
+        <v>-30</v>
       </c>
       <c r="HE2">
-        <v>-11</v>
+        <v>30</v>
       </c>
       <c r="HF2">
-        <v>-11</v>
+        <v>30</v>
       </c>
       <c r="HG2">
-        <v>-11</v>
+        <v>30</v>
       </c>
       <c r="HH2">
-        <v>-11</v>
+        <v>30</v>
       </c>
       <c r="HI2">
-        <v>-11</v>
+        <v>30</v>
       </c>
       <c r="HJ2">
-        <v>-11</v>
+        <v>30</v>
       </c>
       <c r="HK2">
-        <v>-11</v>
+        <v>30</v>
       </c>
       <c r="HL2">
-        <v>-11</v>
+        <v>30</v>
       </c>
       <c r="HM2">
-        <v>-11</v>
+        <v>-30</v>
       </c>
       <c r="HN2">
-        <v>-11</v>
+        <v>30</v>
       </c>
       <c r="HO2">
-        <v>-11</v>
+        <v>-30</v>
       </c>
       <c r="HP2">
-        <v>-11</v>
+        <v>30</v>
       </c>
       <c r="HQ2">
-        <v>-11</v>
+        <v>-30</v>
       </c>
       <c r="HR2">
-        <v>-11</v>
+        <v>30</v>
       </c>
       <c r="HS2">
-        <v>-11</v>
+        <v>-30</v>
       </c>
       <c r="HT2">
-        <v>-11</v>
+        <v>30</v>
       </c>
       <c r="HU2">
-        <v>-11</v>
+        <v>-30</v>
       </c>
       <c r="HV2">
-        <v>-11</v>
+        <v>30</v>
       </c>
       <c r="HW2">
-        <v>-11</v>
+        <v>-30</v>
       </c>
       <c r="HX2">
-        <v>-11</v>
+        <v>30</v>
       </c>
       <c r="HY2">
-        <v>-11</v>
+        <v>-30</v>
       </c>
       <c r="HZ2">
-        <v>-11</v>
+        <v>30</v>
       </c>
       <c r="IA2">
-        <v>-11</v>
+        <v>30</v>
       </c>
       <c r="IB2">
-        <v>-11</v>
+        <v>30</v>
       </c>
       <c r="IC2">
-        <v>-11</v>
+        <v>30</v>
       </c>
       <c r="ID2">
-        <v>-11</v>
+        <v>30</v>
       </c>
       <c r="IE2">
-        <v>-11</v>
+        <v>30</v>
       </c>
       <c r="IF2">
-        <v>-11</v>
+        <v>30</v>
       </c>
       <c r="IG2">
-        <v>-11</v>
+        <v>30</v>
       </c>
       <c r="IH2">
-        <v>-11</v>
+        <v>-30</v>
       </c>
       <c r="II2">
-        <v>-11</v>
+        <v>30</v>
       </c>
       <c r="IJ2">
-        <v>-11</v>
+        <v>-30</v>
       </c>
       <c r="IK2">
-        <v>-11</v>
+        <v>30</v>
       </c>
       <c r="IL2">
-        <v>-11</v>
+        <v>-30</v>
       </c>
       <c r="IM2">
-        <v>-11</v>
+        <v>30</v>
       </c>
       <c r="IN2">
-        <v>-11</v>
+        <v>-30</v>
       </c>
       <c r="IO2">
-        <v>-11</v>
+        <v>30</v>
       </c>
       <c r="IP2">
-        <v>-11</v>
+        <v>-30</v>
       </c>
       <c r="IQ2">
-        <v>-11</v>
+        <v>30</v>
       </c>
       <c r="IR2">
-        <v>-11</v>
+        <v>-30</v>
       </c>
       <c r="IS2">
-        <v>-11</v>
+        <v>30</v>
       </c>
       <c r="IT2">
-        <v>-11</v>
+        <v>-30</v>
       </c>
       <c r="IU2">
-        <v>-11</v>
+        <v>30</v>
       </c>
       <c r="IV2">
-        <v>-11</v>
+        <v>30</v>
       </c>
       <c r="IW2">
-        <v>-11</v>
+        <v>30</v>
       </c>
       <c r="IX2">
-        <v>-11</v>
+        <v>30</v>
       </c>
       <c r="IY2">
-        <v>-11</v>
+        <v>30</v>
       </c>
       <c r="IZ2">
-        <v>-11</v>
+        <v>30</v>
       </c>
       <c r="JA2">
-        <v>-11</v>
+        <v>30</v>
       </c>
       <c r="JB2">
-        <v>-11</v>
+        <v>30</v>
       </c>
       <c r="JC2">
-        <v>-11</v>
+        <v>-30</v>
       </c>
       <c r="JD2">
-        <v>-11</v>
+        <v>30</v>
       </c>
       <c r="JE2">
-        <v>-11</v>
+        <v>-30</v>
       </c>
       <c r="JF2">
-        <v>-11</v>
+        <v>30</v>
       </c>
       <c r="JG2">
-        <v>-11</v>
+        <v>-30</v>
       </c>
       <c r="JH2">
-        <v>-11</v>
+        <v>30</v>
       </c>
       <c r="JI2">
-        <v>-11</v>
+        <v>-30</v>
       </c>
       <c r="JJ2">
-        <v>-11</v>
+        <v>30</v>
       </c>
       <c r="JK2">
-        <v>-11</v>
+        <v>-30</v>
       </c>
       <c r="JL2">
-        <v>-11</v>
+        <v>30</v>
       </c>
       <c r="JM2">
-        <v>-11</v>
+        <v>-30</v>
       </c>
       <c r="JN2">
-        <v>-11</v>
+        <v>30</v>
       </c>
       <c r="JO2">
-        <v>-11</v>
+        <v>-30</v>
       </c>
       <c r="JP2">
-        <v>-11</v>
+        <v>30</v>
       </c>
       <c r="JQ2">
-        <v>-11</v>
+        <v>30</v>
       </c>
       <c r="JR2">
-        <v>-11</v>
+        <v>30</v>
       </c>
       <c r="JS2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="JT2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="JU2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="JV2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="JW2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="JX2">
-        <v>-10</v>
+        <v>-30</v>
       </c>
       <c r="JY2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="JZ2">
-        <v>-10</v>
+        <v>-30</v>
       </c>
       <c r="KA2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="KB2">
-        <v>-10</v>
+        <v>-30</v>
       </c>
       <c r="KC2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="KD2">
-        <v>-10</v>
+        <v>-30</v>
       </c>
       <c r="KE2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="KF2">
-        <v>-10</v>
+        <v>-30</v>
       </c>
       <c r="KG2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="KH2">
-        <v>-10</v>
+        <v>-30</v>
       </c>
       <c r="KI2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="KJ2">
-        <v>-10</v>
+        <v>-30</v>
       </c>
       <c r="KK2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="KL2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="KM2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="KN2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="KO2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="KP2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="KQ2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="KR2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="KS2">
-        <v>-10</v>
+        <v>-30</v>
       </c>
       <c r="KT2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="KU2">
-        <v>-10</v>
+        <v>-30</v>
       </c>
       <c r="KV2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="KW2">
-        <v>-10</v>
+        <v>-30</v>
       </c>
       <c r="KX2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="KY2">
-        <v>-10</v>
+        <v>-30</v>
       </c>
       <c r="KZ2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="LA2">
-        <v>-10</v>
+        <v>-30</v>
       </c>
       <c r="LB2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="LC2">
-        <v>-10</v>
+        <v>-30</v>
       </c>
       <c r="LD2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="LE2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="LF2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="LG2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="LH2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="LI2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="LJ2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="LK2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="LL2">
-        <v>-10</v>
+        <v>-30</v>
       </c>
       <c r="LM2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="LN2">
-        <v>-10</v>
+        <v>-30</v>
       </c>
       <c r="LO2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="LP2">
-        <v>-10</v>
+        <v>-30</v>
       </c>
       <c r="LQ2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="LR2">
-        <v>-10</v>
+        <v>-30</v>
       </c>
       <c r="LS2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="LT2">
-        <v>-10</v>
+        <v>-30</v>
       </c>
       <c r="LU2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="LV2">
-        <v>-10</v>
+        <v>-30</v>
       </c>
       <c r="LW2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="LX2">
-        <v>-10</v>
+        <v>-30</v>
       </c>
       <c r="LY2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="LZ2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="MA2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="MB2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="MC2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="MD2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="ME2">
-        <v>-10</v>
+        <v>-30</v>
       </c>
       <c r="MF2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="MG2">
-        <v>-10</v>
+        <v>-30</v>
       </c>
       <c r="MH2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="MI2">
-        <v>-10</v>
+        <v>-30</v>
       </c>
       <c r="MJ2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="MK2">
-        <v>-10</v>
+        <v>-30</v>
       </c>
       <c r="ML2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="MM2">
-        <v>-10</v>
+        <v>-30</v>
       </c>
       <c r="MN2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="MO2">
-        <v>-10</v>
+        <v>-30</v>
       </c>
       <c r="MP2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="MQ2">
-        <v>-10</v>
+        <v>-30</v>
       </c>
       <c r="MR2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="MS2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="MT2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="MU2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="MV2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="MW2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="MX2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="MY2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="MZ2">
-        <v>-10</v>
+        <v>-30</v>
       </c>
       <c r="NA2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="NB2">
-        <v>-10</v>
+        <v>-30</v>
       </c>
       <c r="NC2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="ND2">
-        <v>-10</v>
+        <v>-30</v>
       </c>
       <c r="NE2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="NF2">
-        <v>-10</v>
+        <v>-30</v>
       </c>
       <c r="NG2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="NH2">
-        <v>-10</v>
+        <v>-30</v>
       </c>
       <c r="NI2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="NJ2">
-        <v>-10</v>
+        <v>-30</v>
       </c>
       <c r="NK2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="NL2">
-        <v>-10</v>
+        <v>-30</v>
       </c>
       <c r="NM2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="NN2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="NO2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="NP2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="NQ2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="NR2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="NS2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="NT2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="NU2">
-        <v>-10</v>
+        <v>-30</v>
       </c>
       <c r="NV2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="NW2">
-        <v>-10</v>
+        <v>-30</v>
       </c>
       <c r="NX2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="NY2">
-        <v>-10</v>
+        <v>-30</v>
       </c>
       <c r="NZ2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="OA2">
-        <v>-10</v>
+        <v>-30</v>
       </c>
       <c r="OB2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="OC2">
-        <v>-10</v>
+        <v>-30</v>
       </c>
       <c r="OD2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="OE2">
-        <v>-10</v>
+        <v>-30</v>
       </c>
       <c r="OF2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="OG2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="OH2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="OI2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="OJ2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="OK2">
-        <v>-10</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
